--- a/qexcel/userv3.xlsx
+++ b/qexcel/userv3.xlsx
@@ -15,12 +15,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -45,7 +52,12 @@
         <bgColor/>
       </patternFill>
     </fill>
-    <fill/>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
     <fill/>
     <fill/>
   </fills>
@@ -84,13 +96,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,12 +439,12 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/qexcel/userv3.xlsx
+++ b/qexcel/userv3.xlsx
@@ -377,19 +377,15 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="10"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
         <v>姓名</v>
       </c>
-      <c r="B1" s="3" t="str">
-        <v>年龄</v>
-      </c>
       <c r="C1" s="3" t="str">
         <v>爱好</v>
       </c>
@@ -400,9 +396,6 @@
     <row r="2">
       <c r="A2" s="1" t="str">
         <v>张三</v>
-      </c>
-      <c r="B2">
-        <v>18</v>
       </c>
       <c r="C2" s="2" t="str">
         <v>吃饭很长的描述测试自动换行，吃饭很长的描述测试自动换行，吃饭很长的描述测试自动换行</v>
@@ -421,9 +414,6 @@
       <c r="A4" s="1" t="str">
         <v>李四</v>
       </c>
-      <c r="B4">
-        <v>19</v>
-      </c>
       <c r="C4" s="2" t="str">
         <v>123</v>
       </c>
@@ -439,12 +429,10 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
 </worksheet>
 </file>